--- a/Code/Results/Cases/Case_5_169/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_169/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9444821366135159</v>
+        <v>1.092944669801142</v>
       </c>
       <c r="C2">
-        <v>0.07977644870173606</v>
+        <v>0.04028668481693387</v>
       </c>
       <c r="D2">
-        <v>0.4735906745766272</v>
+        <v>0.346978685626695</v>
       </c>
       <c r="E2">
-        <v>0.05152563420923251</v>
+        <v>0.0842366385583162</v>
       </c>
       <c r="F2">
-        <v>7.069974470791323</v>
+        <v>4.953339856236369</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7237197111203102</v>
+        <v>0.617892686012965</v>
       </c>
       <c r="L2">
-        <v>0.1451794468711114</v>
+        <v>0.199028834499515</v>
       </c>
       <c r="M2">
-        <v>0.206422047616762</v>
+        <v>0.2564379338705827</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8334208157012313</v>
+        <v>1.07909357416716</v>
       </c>
       <c r="C3">
-        <v>0.07216189710594278</v>
+        <v>0.03812766800085399</v>
       </c>
       <c r="D3">
-        <v>0.4358096669656106</v>
+        <v>0.3343197433336087</v>
       </c>
       <c r="E3">
-        <v>0.04892589515792345</v>
+        <v>0.08360673564669518</v>
       </c>
       <c r="F3">
-        <v>6.364921411107616</v>
+        <v>4.74137407832751</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6262660996031428</v>
+        <v>0.6045266538106091</v>
       </c>
       <c r="L3">
-        <v>0.1322318740274468</v>
+        <v>0.1968507443426901</v>
       </c>
       <c r="M3">
-        <v>0.1839951897434453</v>
+        <v>0.2534131723322197</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7674395442431035</v>
+        <v>1.071552234930095</v>
       </c>
       <c r="C4">
-        <v>0.06757070941958432</v>
+        <v>0.03677288371068954</v>
       </c>
       <c r="D4">
-        <v>0.4128475080813416</v>
+        <v>0.3264566223547121</v>
       </c>
       <c r="E4">
-        <v>0.047365826898492</v>
+        <v>0.08323112675764044</v>
       </c>
       <c r="F4">
-        <v>5.938434064756251</v>
+        <v>4.611407365189422</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5682923012488885</v>
+        <v>0.5970327252605188</v>
       </c>
       <c r="L4">
-        <v>0.124510450877267</v>
+        <v>0.1956125514579412</v>
       </c>
       <c r="M4">
-        <v>0.1706601372101026</v>
+        <v>0.2517483755631176</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7410533584456118</v>
+        <v>1.068720938829927</v>
       </c>
       <c r="C5">
-        <v>0.06571559724857678</v>
+        <v>0.03621330098867759</v>
       </c>
       <c r="D5">
-        <v>0.4035359465178203</v>
+        <v>0.3232291781494041</v>
       </c>
       <c r="E5">
-        <v>0.04673830525243616</v>
+        <v>0.0830808628611166</v>
       </c>
       <c r="F5">
-        <v>5.76601475555168</v>
+        <v>4.558486500939665</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5450846460606016</v>
+        <v>0.5941575649633393</v>
       </c>
       <c r="L5">
-        <v>0.1214162888901527</v>
+        <v>0.1951329034368641</v>
       </c>
       <c r="M5">
-        <v>0.1653251685386365</v>
+        <v>0.2511182923239197</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7367007567584665</v>
+        <v>1.068265401658834</v>
       </c>
       <c r="C6">
-        <v>0.06540836690815155</v>
+        <v>0.03611992494094451</v>
       </c>
       <c r="D6">
-        <v>0.4019921541426612</v>
+        <v>0.3226918529036027</v>
       </c>
       <c r="E6">
-        <v>0.04663457778584323</v>
+        <v>0.08305608061403014</v>
       </c>
       <c r="F6">
-        <v>5.737461331113508</v>
+        <v>4.549701432159594</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5412548087083167</v>
+        <v>0.5936909216755453</v>
       </c>
       <c r="L6">
-        <v>0.1209055290921484</v>
+        <v>0.1950547634398774</v>
       </c>
       <c r="M6">
-        <v>0.1644450076308672</v>
+        <v>0.2510165853798014</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7670817277895026</v>
+        <v>1.071513072278435</v>
       </c>
       <c r="C7">
-        <v>0.06754563331182339</v>
+        <v>0.03676536756071869</v>
       </c>
       <c r="D7">
-        <v>0.4127217611471394</v>
+        <v>0.3264131902129321</v>
       </c>
       <c r="E7">
-        <v>0.04735733175523826</v>
+        <v>0.0832290889158358</v>
       </c>
       <c r="F7">
-        <v>5.936103477433988</v>
+        <v>4.610693492545323</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5679776903852201</v>
+        <v>0.5969932271546412</v>
       </c>
       <c r="L7">
-        <v>0.1244685162309764</v>
+        <v>0.195605981845695</v>
       </c>
       <c r="M7">
-        <v>0.170587799321769</v>
+        <v>0.2517396823995881</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9056951906869131</v>
+        <v>1.087968648099292</v>
       </c>
       <c r="C8">
-        <v>0.07713011046283924</v>
+        <v>0.039548200970561</v>
       </c>
       <c r="D8">
-        <v>0.4605064058550425</v>
+        <v>0.3426324133929768</v>
       </c>
       <c r="E8">
-        <v>0.05062118176260988</v>
+        <v>0.08401712970675668</v>
       </c>
       <c r="F8">
-        <v>6.825391632693254</v>
+        <v>4.880214031325693</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.68969865111373</v>
+        <v>0.6131357622472109</v>
       </c>
       <c r="L8">
-        <v>0.1406645280844359</v>
+        <v>0.1982572402479335</v>
       </c>
       <c r="M8">
-        <v>0.198592507536933</v>
+        <v>0.2553550265628495</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.197780448753917</v>
+        <v>1.127902360285333</v>
       </c>
       <c r="C9">
-        <v>0.09686286673297673</v>
+        <v>0.04478189957535506</v>
       </c>
       <c r="D9">
-        <v>0.5567553855561016</v>
+        <v>0.3737398177964906</v>
       </c>
       <c r="E9">
-        <v>0.05735267346244299</v>
+        <v>0.0856513157949923</v>
       </c>
       <c r="F9">
-        <v>8.632024872509106</v>
+        <v>5.410383309104475</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9457586413928141</v>
+        <v>0.6504773667711845</v>
       </c>
       <c r="L9">
-        <v>0.1744907864400389</v>
+        <v>0.2042441855647468</v>
       </c>
       <c r="M9">
-        <v>0.2574761451498198</v>
+        <v>0.2639746959276152</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.429006793988776</v>
+        <v>1.161949957524769</v>
       </c>
       <c r="C10">
-        <v>0.1123600482719027</v>
+        <v>0.04850182590720209</v>
       </c>
       <c r="D10">
-        <v>0.6300717533876252</v>
+        <v>0.3961972016211632</v>
       </c>
       <c r="E10">
-        <v>0.06256890031014706</v>
+        <v>0.08690674287348443</v>
       </c>
       <c r="F10">
-        <v>10.01608193629252</v>
+        <v>5.801217793267568</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.148537242016289</v>
+        <v>0.6814253061023692</v>
       </c>
       <c r="L10">
-        <v>0.2009985038769031</v>
+        <v>0.2091253294510125</v>
       </c>
       <c r="M10">
-        <v>0.3039622879339419</v>
+        <v>0.2712461558002346</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.538918830102574</v>
+        <v>1.178469861633147</v>
       </c>
       <c r="C11">
-        <v>0.1197400942152882</v>
+        <v>0.05016929332177966</v>
       </c>
       <c r="D11">
-        <v>0.6642602932651585</v>
+        <v>0.4063336508878876</v>
       </c>
       <c r="E11">
-        <v>0.06501831614910714</v>
+        <v>0.08748991550165997</v>
       </c>
       <c r="F11">
-        <v>10.66279468019098</v>
+        <v>5.979376596327995</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.245026103321976</v>
+        <v>0.6962777568209049</v>
       </c>
       <c r="L11">
-        <v>0.2135189503082273</v>
+        <v>0.2114512260864387</v>
       </c>
       <c r="M11">
-        <v>0.3260188494064096</v>
+        <v>0.2747593367264187</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.581326690840314</v>
+        <v>1.184874437751716</v>
       </c>
       <c r="C12">
-        <v>0.1225933491886622</v>
+        <v>0.05079735209746161</v>
       </c>
       <c r="D12">
-        <v>0.6773527804577952</v>
+        <v>0.4101610952685348</v>
       </c>
       <c r="E12">
-        <v>0.06595854144314472</v>
+        <v>0.08771249296685824</v>
       </c>
       <c r="F12">
-        <v>10.91060244924989</v>
+        <v>6.046898424745052</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.282276992567802</v>
+        <v>0.7020140954311671</v>
       </c>
       <c r="L12">
-        <v>0.2183363218462802</v>
+        <v>0.2123471769292138</v>
       </c>
       <c r="M12">
-        <v>0.3345220682191083</v>
+        <v>0.2761193109635443</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.572156554125655</v>
+        <v>1.18348846919497</v>
       </c>
       <c r="C13">
-        <v>0.1219760490568973</v>
+        <v>0.05066223556797667</v>
       </c>
       <c r="D13">
-        <v>0.6745261381797434</v>
+        <v>0.4093372694447908</v>
       </c>
       <c r="E13">
-        <v>0.06575545382105119</v>
+        <v>0.0876644793148138</v>
       </c>
       <c r="F13">
-        <v>10.85709525502142</v>
+        <v>6.032353788764851</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.274220865789971</v>
+        <v>0.7007736776196793</v>
       </c>
       <c r="L13">
-        <v>0.2172952592483313</v>
+        <v>0.2121535421916718</v>
       </c>
       <c r="M13">
-        <v>0.3326836887775215</v>
+        <v>0.2758250980274823</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.542391321018869</v>
+        <v>1.178993783802838</v>
       </c>
       <c r="C14">
-        <v>0.1199735894213276</v>
+        <v>0.05022103067864236</v>
       </c>
       <c r="D14">
-        <v>0.665334333949346</v>
+        <v>0.4066487552217097</v>
       </c>
       <c r="E14">
-        <v>0.06509540441991746</v>
+        <v>0.08750819211963901</v>
       </c>
       <c r="F14">
-        <v>10.68312081122048</v>
+        <v>5.984930491512387</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.24807583581935</v>
+        <v>0.6967474392268969</v>
       </c>
       <c r="L14">
-        <v>0.2139136919303013</v>
+        <v>0.2115246320541218</v>
       </c>
       <c r="M14">
-        <v>0.3267152658926094</v>
+        <v>0.2748706287570073</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.524265115315501</v>
+        <v>1.176260059253792</v>
       </c>
       <c r="C15">
-        <v>0.1187550131779602</v>
+        <v>0.04995034589659753</v>
       </c>
       <c r="D15">
-        <v>0.6597239269595718</v>
+        <v>0.4050005416525835</v>
       </c>
       <c r="E15">
-        <v>0.06469281062932097</v>
+        <v>0.08741268884477549</v>
       </c>
       <c r="F15">
-        <v>10.5769500914563</v>
+        <v>5.955889898372448</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.232157342139033</v>
+        <v>0.6942958644281418</v>
       </c>
       <c r="L15">
-        <v>0.2118526116624508</v>
+        <v>0.2111413845586867</v>
       </c>
       <c r="M15">
-        <v>0.3230797248950807</v>
+        <v>0.274289847109884</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.42192769959172</v>
+        <v>1.160891143136638</v>
       </c>
       <c r="C16">
-        <v>0.1118853028485916</v>
+        <v>0.04839237069224822</v>
       </c>
       <c r="D16">
-        <v>0.6278564104471513</v>
+        <v>0.3955331969748954</v>
       </c>
       <c r="E16">
-        <v>0.06241050389846947</v>
+        <v>0.08686887466291893</v>
       </c>
       <c r="F16">
-        <v>9.974199192907662</v>
+        <v>5.789582431684863</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.142325298964408</v>
+        <v>0.6804703016709936</v>
       </c>
       <c r="L16">
-        <v>0.2001903615655607</v>
+        <v>0.208975450213714</v>
       </c>
       <c r="M16">
-        <v>0.3025408004626371</v>
+        <v>0.271020700135189</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.360429113468115</v>
+        <v>1.151727363330593</v>
       </c>
       <c r="C17">
-        <v>0.10776294830697</v>
+        <v>0.04743039546924166</v>
       </c>
       <c r="D17">
-        <v>0.6085382753491615</v>
+        <v>0.38970522187293</v>
       </c>
       <c r="E17">
-        <v>0.06103111233219316</v>
+        <v>0.08653835899194107</v>
       </c>
       <c r="F17">
-        <v>9.609114571019091</v>
+        <v>5.687655025185109</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.088371724183077</v>
+        <v>0.6721875383944678</v>
       </c>
       <c r="L17">
-        <v>0.1931607969368656</v>
+        <v>0.2076737405947426</v>
       </c>
       <c r="M17">
-        <v>0.290187296974004</v>
+        <v>0.2690678362850747</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.325494390960955</v>
+        <v>1.146553655251751</v>
       </c>
       <c r="C18">
-        <v>0.1054222151418287</v>
+        <v>0.04687475252103468</v>
       </c>
       <c r="D18">
-        <v>0.5975040131876597</v>
+        <v>0.386345613582904</v>
       </c>
       <c r="E18">
-        <v>0.06024481352676148</v>
+        <v>0.08634939103523998</v>
       </c>
       <c r="F18">
-        <v>9.40070657592662</v>
+        <v>5.629063288590118</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.057731605319361</v>
+        <v>0.6674963274998618</v>
       </c>
       <c r="L18">
-        <v>0.1891604073305189</v>
+        <v>0.2069349547282116</v>
       </c>
       <c r="M18">
-        <v>0.2831661740988238</v>
+        <v>0.2679639249528734</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.313738230905869</v>
+        <v>1.144818580395594</v>
       </c>
       <c r="C19">
-        <v>0.1046345814051719</v>
+        <v>0.0466862138624009</v>
       </c>
       <c r="D19">
-        <v>0.5937804983662716</v>
+        <v>0.3852068049268809</v>
       </c>
       <c r="E19">
-        <v>0.05997975636104513</v>
+        <v>0.0862856046286602</v>
       </c>
       <c r="F19">
-        <v>9.330401544023488</v>
+        <v>5.60923087938221</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.047421913845795</v>
+        <v>0.6659204483468386</v>
       </c>
       <c r="L19">
-        <v>0.1878130241047415</v>
+        <v>0.2066865181753172</v>
       </c>
       <c r="M19">
-        <v>0.2808028504588194</v>
+        <v>0.2675934761638672</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.366929720115678</v>
+        <v>1.152692814740647</v>
       </c>
       <c r="C20">
-        <v>0.1081985651185065</v>
+        <v>0.04753304025391003</v>
       </c>
       <c r="D20">
-        <v>0.610586576791377</v>
+        <v>0.3903263940486283</v>
       </c>
       <c r="E20">
-        <v>0.0611772055680202</v>
+        <v>0.08657342533816248</v>
       </c>
       <c r="F20">
-        <v>9.647811933829615</v>
+        <v>5.69850179992423</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.094073849812588</v>
+        <v>0.6730617113647384</v>
       </c>
       <c r="L20">
-        <v>0.1939046069002899</v>
+        <v>0.2078112826492173</v>
       </c>
       <c r="M20">
-        <v>0.2914934884951279</v>
+        <v>0.2692737214271759</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.551111818410845</v>
+        <v>1.18030993795017</v>
       </c>
       <c r="C21">
-        <v>0.1205600734312711</v>
+        <v>0.05035071337462682</v>
       </c>
       <c r="D21">
-        <v>0.6680300045523211</v>
+        <v>0.407438732385458</v>
       </c>
       <c r="E21">
-        <v>0.0652889181838141</v>
+        <v>0.08755405010843731</v>
       </c>
       <c r="F21">
-        <v>10.73413839161009</v>
+        <v>5.99885828320464</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.255735035908685</v>
+        <v>0.6979269964948287</v>
       </c>
       <c r="L21">
-        <v>0.2149047896557903</v>
+        <v>0.2117089459259347</v>
       </c>
       <c r="M21">
-        <v>0.3284640681590432</v>
+        <v>0.2751501752985703</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.676130945316913</v>
+        <v>1.199227172910156</v>
       </c>
       <c r="C22">
-        <v>0.1289869697868653</v>
+        <v>0.05217264008386735</v>
       </c>
       <c r="D22">
-        <v>0.7064382682388555</v>
+        <v>0.4185586659218075</v>
       </c>
       <c r="E22">
-        <v>0.06805104191893463</v>
+        <v>0.08820510580799379</v>
       </c>
       <c r="F22">
-        <v>11.46134250869329</v>
+        <v>6.195492625782833</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.36560226395477</v>
+        <v>0.7148312888899113</v>
       </c>
       <c r="L22">
-        <v>0.229078964310375</v>
+        <v>0.2143448110729906</v>
       </c>
       <c r="M22">
-        <v>0.3535172816464822</v>
+        <v>0.2791633996231653</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.60894148419203</v>
+        <v>1.18905110359529</v>
       </c>
       <c r="C23">
-        <v>0.1244534210674146</v>
+        <v>0.05120197458720099</v>
       </c>
       <c r="D23">
-        <v>0.6858504315636651</v>
+        <v>0.4126294595659488</v>
       </c>
       <c r="E23">
-        <v>0.06656937823700559</v>
+        <v>0.08785669317104094</v>
       </c>
       <c r="F23">
-        <v>11.07147786963179</v>
+        <v>6.090513180697087</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.306540902840283</v>
+        <v>0.7057491203072459</v>
       </c>
       <c r="L23">
-        <v>0.2214692672321235</v>
+        <v>0.2129298932229773</v>
       </c>
       <c r="M23">
-        <v>0.3400570371763934</v>
+        <v>0.2770056444772706</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.363989490446443</v>
+        <v>1.152256039307588</v>
       </c>
       <c r="C24">
-        <v>0.1080015324252983</v>
+        <v>0.04748664263065905</v>
       </c>
       <c r="D24">
-        <v>0.6096603173731978</v>
+        <v>0.3900455902669648</v>
       </c>
       <c r="E24">
-        <v>0.06111113597204287</v>
+        <v>0.08655756857387331</v>
       </c>
       <c r="F24">
-        <v>9.630312267181637</v>
+        <v>5.693597949439152</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.091494747391181</v>
+        <v>0.6726662777221861</v>
       </c>
       <c r="L24">
-        <v>0.1935682034257979</v>
+        <v>0.2077490700347369</v>
       </c>
       <c r="M24">
-        <v>0.2909027082706928</v>
+        <v>0.2691805821507742</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.116182899973751</v>
+        <v>1.116275059608569</v>
       </c>
       <c r="C25">
-        <v>0.09138339454957389</v>
+        <v>0.0433888393403663</v>
       </c>
       <c r="D25">
-        <v>0.5303436266843278</v>
+        <v>0.3653962687009482</v>
       </c>
       <c r="E25">
-        <v>0.05548954208452628</v>
+        <v>0.08519964973835137</v>
       </c>
       <c r="F25">
-        <v>8.13478310017436</v>
+        <v>5.266750071845024</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8742382264798607</v>
+        <v>0.6397619673388135</v>
       </c>
       <c r="L25">
-        <v>0.1650804961417904</v>
+        <v>0.2025399877624707</v>
       </c>
       <c r="M25">
-        <v>0.2410443207246153</v>
+        <v>0.2614784560246122</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_169/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_169/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.092944669801142</v>
+        <v>0.9444821366134875</v>
       </c>
       <c r="C2">
-        <v>0.04028668481693387</v>
+        <v>0.07977644870221923</v>
       </c>
       <c r="D2">
-        <v>0.346978685626695</v>
+        <v>0.4735906745765135</v>
       </c>
       <c r="E2">
-        <v>0.0842366385583162</v>
+        <v>0.05152563420922718</v>
       </c>
       <c r="F2">
-        <v>4.953339856236369</v>
+        <v>7.069974470791266</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.617892686012965</v>
+        <v>0.7237197111203386</v>
       </c>
       <c r="L2">
-        <v>0.199028834499515</v>
+        <v>0.1451794468710261</v>
       </c>
       <c r="M2">
-        <v>0.2564379338705827</v>
+        <v>0.2064220476167726</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.07909357416716</v>
+        <v>0.8334208157012881</v>
       </c>
       <c r="C3">
-        <v>0.03812766800085399</v>
+        <v>0.07216189710591436</v>
       </c>
       <c r="D3">
-        <v>0.3343197433336087</v>
+        <v>0.4358096669653975</v>
       </c>
       <c r="E3">
-        <v>0.08360673564669518</v>
+        <v>0.04892589515788792</v>
       </c>
       <c r="F3">
-        <v>4.74137407832751</v>
+        <v>6.364921411107673</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6045266538106091</v>
+        <v>0.6262660996029581</v>
       </c>
       <c r="L3">
-        <v>0.1968507443426901</v>
+        <v>0.1322318740273545</v>
       </c>
       <c r="M3">
-        <v>0.2534131723322197</v>
+        <v>0.183995189743424</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.071552234930095</v>
+        <v>0.7674395442427624</v>
       </c>
       <c r="C4">
-        <v>0.03677288371068954</v>
+        <v>0.06757070941899457</v>
       </c>
       <c r="D4">
-        <v>0.3264566223547121</v>
+        <v>0.4128475080814269</v>
       </c>
       <c r="E4">
-        <v>0.08323112675764044</v>
+        <v>0.04736582689844226</v>
       </c>
       <c r="F4">
-        <v>4.611407365189422</v>
+        <v>5.938434064756194</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5970327252605188</v>
+        <v>0.5682923012487606</v>
       </c>
       <c r="L4">
-        <v>0.1956125514579412</v>
+        <v>0.1245104508775157</v>
       </c>
       <c r="M4">
-        <v>0.2517483755631176</v>
+        <v>0.17066013721006</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.068720938829927</v>
+        <v>0.7410533584458108</v>
       </c>
       <c r="C5">
-        <v>0.03621330098867759</v>
+        <v>0.06571559724822862</v>
       </c>
       <c r="D5">
-        <v>0.3232291781494041</v>
+        <v>0.4035359465181898</v>
       </c>
       <c r="E5">
-        <v>0.0830808628611166</v>
+        <v>0.0467383052523882</v>
       </c>
       <c r="F5">
-        <v>4.558486500939665</v>
+        <v>5.766014755551623</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5941575649633393</v>
+        <v>0.5450846460605305</v>
       </c>
       <c r="L5">
-        <v>0.1951329034368641</v>
+        <v>0.1214162888902806</v>
       </c>
       <c r="M5">
-        <v>0.2511182923239197</v>
+        <v>0.1653251685386223</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.068265401658834</v>
+        <v>0.7367007567583244</v>
       </c>
       <c r="C6">
-        <v>0.03611992494094451</v>
+        <v>0.06540836690773233</v>
       </c>
       <c r="D6">
-        <v>0.3226918529036027</v>
+        <v>0.4019921541428886</v>
       </c>
       <c r="E6">
-        <v>0.08305608061403014</v>
+        <v>0.04663457778583968</v>
       </c>
       <c r="F6">
-        <v>4.549701432159594</v>
+        <v>5.737461331113593</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5936909216755453</v>
+        <v>0.5412548087082172</v>
       </c>
       <c r="L6">
-        <v>0.1950547634398774</v>
+        <v>0.120905529092191</v>
       </c>
       <c r="M6">
-        <v>0.2510165853798014</v>
+        <v>0.1644450076308566</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.071513072278435</v>
+        <v>0.7670817277892468</v>
       </c>
       <c r="C7">
-        <v>0.03676536756071869</v>
+        <v>0.06754563331182339</v>
       </c>
       <c r="D7">
-        <v>0.3264131902129321</v>
+        <v>0.4127217611471679</v>
       </c>
       <c r="E7">
-        <v>0.0832290889158358</v>
+        <v>0.04735733175526136</v>
       </c>
       <c r="F7">
-        <v>4.610693492545323</v>
+        <v>5.936103477433903</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5969932271546412</v>
+        <v>0.5679776903852485</v>
       </c>
       <c r="L7">
-        <v>0.195605981845695</v>
+        <v>0.1244685162310688</v>
       </c>
       <c r="M7">
-        <v>0.2517396823995881</v>
+        <v>0.1705877993217584</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.087968648099292</v>
+        <v>0.9056951906869983</v>
       </c>
       <c r="C8">
-        <v>0.039548200970561</v>
+        <v>0.07713011046286766</v>
       </c>
       <c r="D8">
-        <v>0.3426324133929768</v>
+        <v>0.4605064058550283</v>
       </c>
       <c r="E8">
-        <v>0.08401712970675668</v>
+        <v>0.05062118176262587</v>
       </c>
       <c r="F8">
-        <v>4.880214031325693</v>
+        <v>6.825391632693226</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6131357622472109</v>
+        <v>0.6896986511138152</v>
       </c>
       <c r="L8">
-        <v>0.1982572402479335</v>
+        <v>0.1406645280845211</v>
       </c>
       <c r="M8">
-        <v>0.2553550265628495</v>
+        <v>0.1985925075369117</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.127902360285333</v>
+        <v>1.197780448753548</v>
       </c>
       <c r="C9">
-        <v>0.04478189957535506</v>
+        <v>0.0968628667326783</v>
       </c>
       <c r="D9">
-        <v>0.3737398177964906</v>
+        <v>0.5567553855560448</v>
       </c>
       <c r="E9">
-        <v>0.0856513157949923</v>
+        <v>0.05735267346235062</v>
       </c>
       <c r="F9">
-        <v>5.410383309104475</v>
+        <v>8.632024872508879</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6504773667711845</v>
+        <v>0.9457586413928141</v>
       </c>
       <c r="L9">
-        <v>0.2042441855647468</v>
+        <v>0.1744907864399323</v>
       </c>
       <c r="M9">
-        <v>0.2639746959276152</v>
+        <v>0.2574761451498908</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.161949957524769</v>
+        <v>1.429006793988862</v>
       </c>
       <c r="C10">
-        <v>0.04850182590720209</v>
+        <v>0.1123600482719667</v>
       </c>
       <c r="D10">
-        <v>0.3961972016211632</v>
+        <v>0.6300717533874831</v>
       </c>
       <c r="E10">
-        <v>0.08690674287348443</v>
+        <v>0.06256890031007245</v>
       </c>
       <c r="F10">
-        <v>5.801217793267568</v>
+        <v>10.01608193629244</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6814253061023692</v>
+        <v>1.148537242016118</v>
       </c>
       <c r="L10">
-        <v>0.2091253294510125</v>
+        <v>0.2009985038769742</v>
       </c>
       <c r="M10">
-        <v>0.2712461558002346</v>
+        <v>0.303962287933949</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.178469861633147</v>
+        <v>1.538918830102688</v>
       </c>
       <c r="C11">
-        <v>0.05016929332177966</v>
+        <v>0.1197400942152953</v>
       </c>
       <c r="D11">
-        <v>0.4063336508878876</v>
+        <v>0.6642602932649879</v>
       </c>
       <c r="E11">
-        <v>0.08748991550165997</v>
+        <v>0.0650183161490645</v>
       </c>
       <c r="F11">
-        <v>5.979376596327995</v>
+        <v>10.66279468019098</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6962777568209049</v>
+        <v>1.245026103321834</v>
       </c>
       <c r="L11">
-        <v>0.2114512260864387</v>
+        <v>0.213518950308071</v>
       </c>
       <c r="M11">
-        <v>0.2747593367264187</v>
+        <v>0.3260188494064167</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.184874437751716</v>
+        <v>1.581326690840257</v>
       </c>
       <c r="C12">
-        <v>0.05079735209746161</v>
+        <v>0.1225933491882216</v>
       </c>
       <c r="D12">
-        <v>0.4101610952685348</v>
+        <v>0.6773527804579089</v>
       </c>
       <c r="E12">
-        <v>0.08771249296685824</v>
+        <v>0.06595854144306657</v>
       </c>
       <c r="F12">
-        <v>6.046898424745052</v>
+        <v>10.91060244924978</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7020140954311671</v>
+        <v>1.282276992567887</v>
       </c>
       <c r="L12">
-        <v>0.2123471769292138</v>
+        <v>0.2183363218462233</v>
       </c>
       <c r="M12">
-        <v>0.2761193109635443</v>
+        <v>0.3345220682190444</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.18348846919497</v>
+        <v>1.572156554125655</v>
       </c>
       <c r="C13">
-        <v>0.05066223556797667</v>
+        <v>0.1219760490578778</v>
       </c>
       <c r="D13">
-        <v>0.4093372694447908</v>
+        <v>0.6745261381798002</v>
       </c>
       <c r="E13">
-        <v>0.0876644793148138</v>
+        <v>0.06575545382106185</v>
       </c>
       <c r="F13">
-        <v>6.032353788764851</v>
+        <v>10.85709525502131</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7007736776196793</v>
+        <v>1.274220865789914</v>
       </c>
       <c r="L13">
-        <v>0.2121535421916718</v>
+        <v>0.2172952592484165</v>
       </c>
       <c r="M13">
-        <v>0.2758250980274823</v>
+        <v>0.3326836887775073</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.178993783802838</v>
+        <v>1.542391321018926</v>
       </c>
       <c r="C14">
-        <v>0.05022103067864236</v>
+        <v>0.1199735894212637</v>
       </c>
       <c r="D14">
-        <v>0.4066487552217097</v>
+        <v>0.6653343339496871</v>
       </c>
       <c r="E14">
-        <v>0.08750819211963901</v>
+        <v>0.06509540441993522</v>
       </c>
       <c r="F14">
-        <v>5.984930491512387</v>
+        <v>10.68312081122059</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6967474392268969</v>
+        <v>1.248075835819265</v>
       </c>
       <c r="L14">
-        <v>0.2115246320541218</v>
+        <v>0.2139136919301876</v>
       </c>
       <c r="M14">
-        <v>0.2748706287570073</v>
+        <v>0.3267152658925951</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.176260059253792</v>
+        <v>1.524265115315529</v>
       </c>
       <c r="C15">
-        <v>0.04995034589659753</v>
+        <v>0.118755013179296</v>
       </c>
       <c r="D15">
-        <v>0.4050005416525835</v>
+        <v>0.6597239269599129</v>
       </c>
       <c r="E15">
-        <v>0.08741268884477549</v>
+        <v>0.06469281062933518</v>
       </c>
       <c r="F15">
-        <v>5.955889898372448</v>
+        <v>10.57695009145647</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6942958644281418</v>
+        <v>1.232157342139175</v>
       </c>
       <c r="L15">
-        <v>0.2111413845586867</v>
+        <v>0.2118526116625361</v>
       </c>
       <c r="M15">
-        <v>0.274289847109884</v>
+        <v>0.3230797248951518</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.160891143136638</v>
+        <v>1.421927699591777</v>
       </c>
       <c r="C16">
-        <v>0.04839237069224822</v>
+        <v>0.1118853028490463</v>
       </c>
       <c r="D16">
-        <v>0.3955331969748954</v>
+        <v>0.6278564104470377</v>
       </c>
       <c r="E16">
-        <v>0.08686887466291893</v>
+        <v>0.06241050389838421</v>
       </c>
       <c r="F16">
-        <v>5.789582431684863</v>
+        <v>9.974199192907719</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6804703016709936</v>
+        <v>1.142325298964153</v>
       </c>
       <c r="L16">
-        <v>0.208975450213714</v>
+        <v>0.2001903615657454</v>
       </c>
       <c r="M16">
-        <v>0.271020700135189</v>
+        <v>0.3025408004626442</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.151727363330593</v>
+        <v>1.360429113468342</v>
       </c>
       <c r="C17">
-        <v>0.04743039546924166</v>
+        <v>0.1077629483074318</v>
       </c>
       <c r="D17">
-        <v>0.38970522187293</v>
+        <v>0.6085382753496162</v>
       </c>
       <c r="E17">
-        <v>0.08653835899194107</v>
+        <v>0.06103111233225356</v>
       </c>
       <c r="F17">
-        <v>5.687655025185109</v>
+        <v>9.609114571019091</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6721875383944678</v>
+        <v>1.088371724182849</v>
       </c>
       <c r="L17">
-        <v>0.2076737405947426</v>
+        <v>0.1931607969367661</v>
       </c>
       <c r="M17">
-        <v>0.2690678362850747</v>
+        <v>0.2901872969740182</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.146553655251751</v>
+        <v>1.325494390960841</v>
       </c>
       <c r="C18">
-        <v>0.04687475252103468</v>
+        <v>0.105422215141779</v>
       </c>
       <c r="D18">
-        <v>0.386345613582904</v>
+        <v>0.5975040131873186</v>
       </c>
       <c r="E18">
-        <v>0.08634939103523998</v>
+        <v>0.06024481352680056</v>
       </c>
       <c r="F18">
-        <v>5.629063288590118</v>
+        <v>9.400706575926705</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6674963274998618</v>
+        <v>1.057731605319219</v>
       </c>
       <c r="L18">
-        <v>0.2069349547282116</v>
+        <v>0.1891604073305189</v>
       </c>
       <c r="M18">
-        <v>0.2679639249528734</v>
+        <v>0.2831661740988309</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.144818580395594</v>
+        <v>1.313738230905841</v>
       </c>
       <c r="C19">
-        <v>0.0466862138624009</v>
+        <v>0.1046345814046887</v>
       </c>
       <c r="D19">
-        <v>0.3852068049268809</v>
+        <v>0.5937804983664989</v>
       </c>
       <c r="E19">
-        <v>0.0862856046286602</v>
+        <v>0.0599797563610327</v>
       </c>
       <c r="F19">
-        <v>5.60923087938221</v>
+        <v>9.330401544023488</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6659204483468386</v>
+        <v>1.047421913845852</v>
       </c>
       <c r="L19">
-        <v>0.2066865181753172</v>
+        <v>0.1878130241047842</v>
       </c>
       <c r="M19">
-        <v>0.2675934761638672</v>
+        <v>0.2808028504588407</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.152692814740647</v>
+        <v>1.366929720115934</v>
       </c>
       <c r="C20">
-        <v>0.04753304025391003</v>
+        <v>0.1081985651190038</v>
       </c>
       <c r="D20">
-        <v>0.3903263940486283</v>
+        <v>0.610586576791178</v>
       </c>
       <c r="E20">
-        <v>0.08657342533816248</v>
+        <v>0.06117720556803441</v>
       </c>
       <c r="F20">
-        <v>5.69850179992423</v>
+        <v>9.647811933829587</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6730617113647384</v>
+        <v>1.094073849812332</v>
       </c>
       <c r="L20">
-        <v>0.2078112826492173</v>
+        <v>0.1939046069003894</v>
       </c>
       <c r="M20">
-        <v>0.2692737214271759</v>
+        <v>0.2914934884951492</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.18030993795017</v>
+        <v>1.551111818410732</v>
       </c>
       <c r="C21">
-        <v>0.05035071337462682</v>
+        <v>0.1205600734308945</v>
       </c>
       <c r="D21">
-        <v>0.407438732385458</v>
+        <v>0.6680300045519516</v>
       </c>
       <c r="E21">
-        <v>0.08755405010843731</v>
+        <v>0.06528891818392069</v>
       </c>
       <c r="F21">
-        <v>5.99885828320464</v>
+        <v>10.7341383916098</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6979269964948287</v>
+        <v>1.255735035908771</v>
       </c>
       <c r="L21">
-        <v>0.2117089459259347</v>
+        <v>0.2149047896559892</v>
       </c>
       <c r="M21">
-        <v>0.2751501752985703</v>
+        <v>0.3284640681590361</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.199227172910156</v>
+        <v>1.676130945316743</v>
       </c>
       <c r="C22">
-        <v>0.05217264008386735</v>
+        <v>0.1289869697864034</v>
       </c>
       <c r="D22">
-        <v>0.4185586659218075</v>
+        <v>0.7064382682388839</v>
       </c>
       <c r="E22">
-        <v>0.08820510580799379</v>
+        <v>0.06805104191890976</v>
       </c>
       <c r="F22">
-        <v>6.195492625782833</v>
+        <v>11.46134250869318</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7148312888899113</v>
+        <v>1.36560226395477</v>
       </c>
       <c r="L22">
-        <v>0.2143448110729906</v>
+        <v>0.2290789643107871</v>
       </c>
       <c r="M22">
-        <v>0.2791633996231653</v>
+        <v>0.3535172816464751</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.18905110359529</v>
+        <v>1.60894148419203</v>
       </c>
       <c r="C23">
-        <v>0.05120197458720099</v>
+        <v>0.1244534210679262</v>
       </c>
       <c r="D23">
-        <v>0.4126294595659488</v>
+        <v>0.6858504315632103</v>
       </c>
       <c r="E23">
-        <v>0.08785669317104094</v>
+        <v>0.0665693782368777</v>
       </c>
       <c r="F23">
-        <v>6.090513180697087</v>
+        <v>11.07147786963179</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7057491203072459</v>
+        <v>1.306540902840368</v>
       </c>
       <c r="L23">
-        <v>0.2129298932229773</v>
+        <v>0.2214692672319529</v>
       </c>
       <c r="M23">
-        <v>0.2770056444772706</v>
+        <v>0.3400570371763649</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.152256039307588</v>
+        <v>1.363989490446443</v>
       </c>
       <c r="C24">
-        <v>0.04748664263065905</v>
+        <v>0.1080015324253054</v>
       </c>
       <c r="D24">
-        <v>0.3900455902669648</v>
+        <v>0.6096603173734536</v>
       </c>
       <c r="E24">
-        <v>0.08655756857387331</v>
+        <v>0.0611111359720482</v>
       </c>
       <c r="F24">
-        <v>5.693597949439152</v>
+        <v>9.630312267181523</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6726662777221861</v>
+        <v>1.091494747391209</v>
       </c>
       <c r="L24">
-        <v>0.2077490700347369</v>
+        <v>0.1935682034257127</v>
       </c>
       <c r="M24">
-        <v>0.2691805821507742</v>
+        <v>0.2909027082706928</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.116275059608569</v>
+        <v>1.116182899973694</v>
       </c>
       <c r="C25">
-        <v>0.0433888393403663</v>
+        <v>0.09138339454995759</v>
       </c>
       <c r="D25">
-        <v>0.3653962687009482</v>
+        <v>0.5303436266842567</v>
       </c>
       <c r="E25">
-        <v>0.08519964973835137</v>
+        <v>0.05548954208443213</v>
       </c>
       <c r="F25">
-        <v>5.266750071845024</v>
+        <v>8.134783100174445</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6397619673388135</v>
+        <v>0.8742382264796049</v>
       </c>
       <c r="L25">
-        <v>0.2025399877624707</v>
+        <v>0.1650804961414991</v>
       </c>
       <c r="M25">
-        <v>0.2614784560246122</v>
+        <v>0.2410443207245763</v>
       </c>
       <c r="N25">
         <v>0</v>
